--- a/Sprint01 - Analisi del problema/Sprint_Product_Backlog.xlsx
+++ b/Sprint01 - Analisi del problema/Sprint_Product_Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s.brescia\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s.brescia\ISSproject\Sprint01 - Analisi del problema\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5116C62-10EE-4EDE-9CE4-ACCB12203389}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF8AD89-BFE5-4F79-BACE-2C2ACD6138D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{46B07182-46DF-44D5-A253-71CFBAAE63CA}"/>
+    <workbookView xWindow="5760" yWindow="1176" windowWidth="17280" windowHeight="8964" xr2:uid="{46B07182-46DF-44D5-A253-71CFBAAE63CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint" sheetId="1" r:id="rId1"/>
@@ -281,13 +281,13 @@
     <t>Realizzazione dei metodi check_food e exposefridgestate</t>
   </si>
   <si>
-    <t>Crezione degli edeguibili di ogni elemento del progetto</t>
-  </si>
-  <si>
     <t>Revisone del frontend</t>
   </si>
   <si>
     <t>Aggiunta della funzione REQUEST</t>
+  </si>
+  <si>
+    <t>Crezione degli eseguibili di ogni elemento del progetto</t>
   </si>
 </sst>
 </file>
@@ -465,6 +465,8 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -483,22 +485,22 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -510,8 +512,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -828,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C764A3D-98B5-4C4F-8358-0CE11CC96FD9}">
   <dimension ref="A1:G159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="G154" sqref="G154"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="C144" sqref="C144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -844,14 +844,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -876,7 +876,7 @@
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="23">
+      <c r="A3" s="28">
         <v>0</v>
       </c>
       <c r="B3" s="6"/>
@@ -889,12 +889,12 @@
       <c r="E3" s="8">
         <v>43664</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="32" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
         <v>80</v>
@@ -905,10 +905,10 @@
       <c r="E4" s="8">
         <v>43664</v>
       </c>
-      <c r="F4" s="31"/>
+      <c r="F4" s="33"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
         <v>7</v>
@@ -919,7 +919,7 @@
       <c r="E5" s="8">
         <v>43664</v>
       </c>
-      <c r="F5" s="31"/>
+      <c r="F5" s="33"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
@@ -942,10 +942,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="17">
+      <c r="A9" s="19">
         <v>1</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -957,13 +957,13 @@
       <c r="E9" s="8">
         <v>43668</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="6" t="s">
         <v>12</v>
       </c>
@@ -973,11 +973,11 @@
       <c r="E10" s="8">
         <v>43668</v>
       </c>
-      <c r="F10" s="27"/>
+      <c r="F10" s="26"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="6" t="s">
         <v>13</v>
       </c>
@@ -987,11 +987,11 @@
       <c r="E11" s="8">
         <v>43668</v>
       </c>
-      <c r="F11" s="27"/>
+      <c r="F11" s="26"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="9" t="s">
         <v>14</v>
       </c>
@@ -1001,10 +1001,10 @@
       <c r="E12" s="8">
         <v>43672</v>
       </c>
-      <c r="F12" s="27"/>
+      <c r="F12" s="26"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -1013,10 +1013,10 @@
         <v>8</v>
       </c>
       <c r="E13" s="7"/>
-      <c r="F13" s="27"/>
+      <c r="F13" s="26"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="18"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="10" t="s">
         <v>16</v>
       </c>
@@ -1027,10 +1027,10 @@
       <c r="E14" s="8">
         <v>43676</v>
       </c>
-      <c r="F14" s="27"/>
+      <c r="F14" s="26"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
@@ -1041,7 +1041,7 @@
       <c r="E15" s="8">
         <v>43676</v>
       </c>
-      <c r="F15" s="28"/>
+      <c r="F15" s="27"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
@@ -1064,10 +1064,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="23">
+      <c r="A19" s="28">
         <v>2</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -1079,13 +1079,13 @@
       <c r="E19" s="8">
         <v>43789</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="F19" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="23"/>
-      <c r="B20" s="18"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="6" t="s">
         <v>62</v>
       </c>
@@ -1095,11 +1095,11 @@
       <c r="E20" s="8">
         <v>43789</v>
       </c>
-      <c r="F20" s="25"/>
+      <c r="F20" s="29"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
-      <c r="B21" s="18"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="6" t="s">
         <v>19</v>
       </c>
@@ -1109,11 +1109,11 @@
       <c r="E21" s="8">
         <v>43795</v>
       </c>
-      <c r="F21" s="25"/>
+      <c r="F21" s="29"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
-      <c r="B22" s="18"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="6" t="s">
         <v>20</v>
       </c>
@@ -1123,11 +1123,11 @@
       <c r="E22" s="8">
         <v>43803</v>
       </c>
-      <c r="F22" s="25"/>
+      <c r="F22" s="29"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
-      <c r="B23" s="18"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="9" t="s">
         <v>81</v>
       </c>
@@ -1137,11 +1137,11 @@
       <c r="E23" s="8">
         <v>43795</v>
       </c>
-      <c r="F23" s="25"/>
+      <c r="F23" s="29"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
-      <c r="B24" s="18"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="6" t="s">
         <v>22</v>
       </c>
@@ -1151,11 +1151,11 @@
       <c r="E24" s="8">
         <v>43803</v>
       </c>
-      <c r="F24" s="25"/>
+      <c r="F24" s="29"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
-      <c r="B25" s="18"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="6" t="s">
         <v>23</v>
       </c>
@@ -1165,10 +1165,10 @@
       <c r="E25" s="8">
         <v>43812</v>
       </c>
-      <c r="F25" s="25"/>
+      <c r="F25" s="29"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
+      <c r="A26" s="28"/>
       <c r="B26" s="10" t="s">
         <v>15</v>
       </c>
@@ -1177,10 +1177,10 @@
         <v>8</v>
       </c>
       <c r="E26" s="8"/>
-      <c r="F26" s="25"/>
+      <c r="F26" s="29"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="23"/>
+      <c r="A27" s="28"/>
       <c r="B27" s="10" t="s">
         <v>16</v>
       </c>
@@ -1191,10 +1191,10 @@
       <c r="E27" s="8">
         <v>43816</v>
       </c>
-      <c r="F27" s="25"/>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
+      <c r="A28" s="28"/>
       <c r="B28" s="10" t="s">
         <v>17</v>
       </c>
@@ -1205,10 +1205,10 @@
       <c r="E28" s="8">
         <v>43816</v>
       </c>
-      <c r="F28" s="26"/>
+      <c r="F28" s="30"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C29" s="32"/>
+      <c r="C29" s="17"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
@@ -1231,10 +1231,10 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="17">
+      <c r="A32" s="19">
         <v>3</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="6" t="s">
@@ -1246,13 +1246,13 @@
       <c r="E32" s="8">
         <v>43906</v>
       </c>
-      <c r="F32" s="24" t="s">
+      <c r="F32" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="6" t="s">
         <v>61</v>
       </c>
@@ -1262,11 +1262,11 @@
       <c r="E33" s="8">
         <v>43906</v>
       </c>
-      <c r="F33" s="25"/>
+      <c r="F33" s="29"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="6" t="s">
         <v>51</v>
       </c>
@@ -1276,11 +1276,11 @@
       <c r="E34" s="8">
         <v>43910</v>
       </c>
-      <c r="F34" s="25"/>
+      <c r="F34" s="29"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="6" t="s">
         <v>28</v>
       </c>
@@ -1290,11 +1290,11 @@
       <c r="E35" s="8">
         <v>43910</v>
       </c>
-      <c r="F35" s="25"/>
+      <c r="F35" s="29"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
       <c r="C36" s="6" t="s">
         <v>20</v>
       </c>
@@ -1304,11 +1304,11 @@
       <c r="E36" s="8">
         <v>43913</v>
       </c>
-      <c r="F36" s="25"/>
+      <c r="F36" s="29"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="6" t="s">
         <v>29</v>
       </c>
@@ -1318,11 +1318,11 @@
       <c r="E37" s="8">
         <v>43913</v>
       </c>
-      <c r="F37" s="25"/>
+      <c r="F37" s="29"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="6" t="s">
         <v>22</v>
       </c>
@@ -1332,11 +1332,11 @@
       <c r="E38" s="8">
         <v>43920</v>
       </c>
-      <c r="F38" s="25"/>
+      <c r="F38" s="29"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="18"/>
-      <c r="B39" s="19"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="21"/>
       <c r="C39" s="6" t="s">
         <v>23</v>
       </c>
@@ -1346,20 +1346,20 @@
       <c r="E39" s="8">
         <v>43925</v>
       </c>
-      <c r="F39" s="25"/>
+      <c r="F39" s="29"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="18"/>
+      <c r="A40" s="20"/>
       <c r="B40" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="7"/>
       <c r="E40" s="8"/>
-      <c r="F40" s="25"/>
+      <c r="F40" s="29"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="18"/>
+      <c r="A41" s="20"/>
       <c r="B41" s="10" t="s">
         <v>16</v>
       </c>
@@ -1370,10 +1370,10 @@
       <c r="E41" s="8">
         <v>43927</v>
       </c>
-      <c r="F41" s="25"/>
+      <c r="F41" s="29"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="19"/>
+      <c r="A42" s="21"/>
       <c r="B42" s="10" t="s">
         <v>17</v>
       </c>
@@ -1384,7 +1384,7 @@
       <c r="E42" s="8">
         <v>43927</v>
       </c>
-      <c r="F42" s="26"/>
+      <c r="F42" s="30"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
@@ -1407,10 +1407,10 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="23">
+      <c r="A46" s="28">
         <v>4</v>
       </c>
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="28" t="s">
         <v>10</v>
       </c>
       <c r="C46" s="6" t="s">
@@ -1422,13 +1422,13 @@
       <c r="E46" s="8">
         <v>43929</v>
       </c>
-      <c r="F46" s="24" t="s">
+      <c r="F46" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="23"/>
-      <c r="B47" s="23"/>
+      <c r="A47" s="28"/>
+      <c r="B47" s="28"/>
       <c r="C47" s="6" t="s">
         <v>62</v>
       </c>
@@ -1438,11 +1438,11 @@
       <c r="E47" s="8">
         <v>43929</v>
       </c>
-      <c r="F47" s="25"/>
+      <c r="F47" s="29"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="23"/>
-      <c r="B48" s="23"/>
+      <c r="A48" s="28"/>
+      <c r="B48" s="28"/>
       <c r="C48" s="6" t="s">
         <v>20</v>
       </c>
@@ -1452,11 +1452,11 @@
       <c r="E48" s="8">
         <v>43935</v>
       </c>
-      <c r="F48" s="25"/>
+      <c r="F48" s="29"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="23"/>
-      <c r="B49" s="23"/>
+      <c r="A49" s="28"/>
+      <c r="B49" s="28"/>
       <c r="C49" s="6" t="s">
         <v>32</v>
       </c>
@@ -1466,11 +1466,11 @@
       <c r="E49" s="8">
         <v>43935</v>
       </c>
-      <c r="F49" s="25"/>
+      <c r="F49" s="29"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="23"/>
-      <c r="B50" s="23"/>
+      <c r="A50" s="28"/>
+      <c r="B50" s="28"/>
       <c r="C50" s="6" t="s">
         <v>33</v>
       </c>
@@ -1480,11 +1480,11 @@
       <c r="E50" s="8">
         <v>43941</v>
       </c>
-      <c r="F50" s="25"/>
+      <c r="F50" s="29"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="23"/>
-      <c r="B51" s="23"/>
+      <c r="A51" s="28"/>
+      <c r="B51" s="28"/>
       <c r="C51" s="6" t="s">
         <v>22</v>
       </c>
@@ -1494,11 +1494,11 @@
       <c r="E51" s="8">
         <v>43941</v>
       </c>
-      <c r="F51" s="25"/>
+      <c r="F51" s="29"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="23"/>
-      <c r="B52" s="23"/>
+      <c r="A52" s="28"/>
+      <c r="B52" s="28"/>
       <c r="C52" s="6" t="s">
         <v>23</v>
       </c>
@@ -1508,20 +1508,20 @@
       <c r="E52" s="8">
         <v>43943</v>
       </c>
-      <c r="F52" s="25"/>
+      <c r="F52" s="29"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="23"/>
+      <c r="A53" s="28"/>
       <c r="B53" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="7"/>
       <c r="E53" s="8"/>
-      <c r="F53" s="25"/>
+      <c r="F53" s="29"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="23"/>
+      <c r="A54" s="28"/>
       <c r="B54" s="10" t="s">
         <v>16</v>
       </c>
@@ -1532,10 +1532,10 @@
       <c r="E54" s="8">
         <v>43945</v>
       </c>
-      <c r="F54" s="25"/>
+      <c r="F54" s="29"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="23"/>
+      <c r="A55" s="28"/>
       <c r="B55" s="10" t="s">
         <v>17</v>
       </c>
@@ -1546,7 +1546,7 @@
       <c r="E55" s="8">
         <v>43945</v>
       </c>
-      <c r="F55" s="26"/>
+      <c r="F55" s="30"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56"/>
@@ -1574,10 +1574,10 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="17">
+      <c r="A59" s="19">
         <v>5</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C59" s="6" t="s">
@@ -1589,13 +1589,13 @@
       <c r="E59" s="8">
         <v>43948</v>
       </c>
-      <c r="F59" s="24" t="s">
+      <c r="F59" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="18"/>
-      <c r="B60" s="18"/>
+      <c r="A60" s="20"/>
+      <c r="B60" s="20"/>
       <c r="C60" s="6" t="s">
         <v>61</v>
       </c>
@@ -1605,11 +1605,11 @@
       <c r="E60" s="8">
         <v>43948</v>
       </c>
-      <c r="F60" s="25"/>
+      <c r="F60" s="29"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="18"/>
-      <c r="B61" s="18"/>
+      <c r="A61" s="20"/>
+      <c r="B61" s="20"/>
       <c r="C61" s="6" t="s">
         <v>20</v>
       </c>
@@ -1619,11 +1619,11 @@
       <c r="E61" s="8">
         <v>43951</v>
       </c>
-      <c r="F61" s="25"/>
+      <c r="F61" s="29"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="18"/>
-      <c r="B62" s="18"/>
+      <c r="A62" s="20"/>
+      <c r="B62" s="20"/>
       <c r="C62" s="6" t="s">
         <v>36</v>
       </c>
@@ -1633,11 +1633,11 @@
       <c r="E62" s="8">
         <v>43925</v>
       </c>
-      <c r="F62" s="25"/>
+      <c r="F62" s="29"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="18"/>
-      <c r="B63" s="18"/>
+      <c r="A63" s="20"/>
+      <c r="B63" s="20"/>
       <c r="C63" s="6" t="s">
         <v>22</v>
       </c>
@@ -1647,11 +1647,11 @@
       <c r="E63" s="8">
         <v>43955</v>
       </c>
-      <c r="F63" s="25"/>
+      <c r="F63" s="29"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="18"/>
-      <c r="B64" s="19"/>
+      <c r="A64" s="20"/>
+      <c r="B64" s="21"/>
       <c r="C64" s="6" t="s">
         <v>23</v>
       </c>
@@ -1661,20 +1661,20 @@
       <c r="E64" s="8">
         <v>43956</v>
       </c>
-      <c r="F64" s="25"/>
+      <c r="F64" s="29"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="18"/>
+      <c r="A65" s="20"/>
       <c r="B65" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="7"/>
       <c r="E65" s="8"/>
-      <c r="F65" s="25"/>
+      <c r="F65" s="29"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="18"/>
+      <c r="A66" s="20"/>
       <c r="B66" s="10" t="s">
         <v>16</v>
       </c>
@@ -1685,10 +1685,10 @@
       <c r="E66" s="8">
         <v>43957</v>
       </c>
-      <c r="F66" s="25"/>
+      <c r="F66" s="29"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="19"/>
+      <c r="A67" s="21"/>
       <c r="B67" s="10" t="s">
         <v>17</v>
       </c>
@@ -1699,7 +1699,7 @@
       <c r="E67" s="8">
         <v>43957</v>
       </c>
-      <c r="F67" s="26"/>
+      <c r="F67" s="30"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="11" t="s">
@@ -1722,10 +1722,10 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="17">
+      <c r="A71" s="19">
         <v>6</v>
       </c>
-      <c r="B71" s="17" t="s">
+      <c r="B71" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C71" s="6" t="s">
@@ -1737,13 +1737,13 @@
       <c r="E71" s="8">
         <v>43960</v>
       </c>
-      <c r="F71" s="24" t="s">
+      <c r="F71" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="18"/>
-      <c r="B72" s="18"/>
+      <c r="A72" s="20"/>
+      <c r="B72" s="20"/>
       <c r="C72" s="6" t="s">
         <v>39</v>
       </c>
@@ -1753,11 +1753,11 @@
       <c r="E72" s="8">
         <v>43962</v>
       </c>
-      <c r="F72" s="25"/>
+      <c r="F72" s="29"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="18"/>
-      <c r="B73" s="18"/>
+      <c r="A73" s="20"/>
+      <c r="B73" s="20"/>
       <c r="C73" s="6" t="s">
         <v>61</v>
       </c>
@@ -1767,11 +1767,11 @@
       <c r="E73" s="8">
         <v>43962</v>
       </c>
-      <c r="F73" s="25"/>
+      <c r="F73" s="29"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="18"/>
-      <c r="B74" s="18"/>
+      <c r="A74" s="20"/>
+      <c r="B74" s="20"/>
       <c r="C74" s="6" t="s">
         <v>20</v>
       </c>
@@ -1781,11 +1781,11 @@
       <c r="E74" s="8">
         <v>43962</v>
       </c>
-      <c r="F74" s="25"/>
+      <c r="F74" s="29"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="18"/>
-      <c r="B75" s="18"/>
+      <c r="A75" s="20"/>
+      <c r="B75" s="20"/>
       <c r="C75" s="6" t="s">
         <v>40</v>
       </c>
@@ -1795,11 +1795,11 @@
       <c r="E75" s="8">
         <v>43965</v>
       </c>
-      <c r="F75" s="25"/>
+      <c r="F75" s="29"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="18"/>
-      <c r="B76" s="18"/>
+      <c r="A76" s="20"/>
+      <c r="B76" s="20"/>
       <c r="C76" s="6" t="s">
         <v>22</v>
       </c>
@@ -1809,11 +1809,11 @@
       <c r="E76" s="8">
         <v>43969</v>
       </c>
-      <c r="F76" s="25"/>
+      <c r="F76" s="29"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="18"/>
-      <c r="B77" s="19"/>
+      <c r="A77" s="20"/>
+      <c r="B77" s="21"/>
       <c r="C77" s="6" t="s">
         <v>23</v>
       </c>
@@ -1823,20 +1823,20 @@
       <c r="E77" s="8">
         <v>43970</v>
       </c>
-      <c r="F77" s="25"/>
+      <c r="F77" s="29"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="18"/>
+      <c r="A78" s="20"/>
       <c r="B78" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="7"/>
       <c r="E78" s="8"/>
-      <c r="F78" s="25"/>
+      <c r="F78" s="29"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="18"/>
+      <c r="A79" s="20"/>
       <c r="B79" s="10" t="s">
         <v>16</v>
       </c>
@@ -1847,10 +1847,10 @@
       <c r="E79" s="8">
         <v>43971</v>
       </c>
-      <c r="F79" s="25"/>
+      <c r="F79" s="29"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="19"/>
+      <c r="A80" s="21"/>
       <c r="B80" s="10" t="s">
         <v>17</v>
       </c>
@@ -1861,7 +1861,7 @@
       <c r="E80" s="8">
         <v>43971</v>
       </c>
-      <c r="F80" s="26"/>
+      <c r="F80" s="30"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="14"/>
@@ -1892,10 +1892,10 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="17">
+      <c r="A84" s="19">
         <v>7</v>
       </c>
-      <c r="B84" s="17" t="s">
+      <c r="B84" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C84" s="6" t="s">
@@ -1907,13 +1907,13 @@
       <c r="E84" s="8">
         <v>43976</v>
       </c>
-      <c r="F84" s="24" t="s">
+      <c r="F84" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="18"/>
-      <c r="B85" s="18"/>
+      <c r="A85" s="20"/>
+      <c r="B85" s="20"/>
       <c r="C85" s="6" t="s">
         <v>46</v>
       </c>
@@ -1923,11 +1923,11 @@
       <c r="E85" s="8">
         <v>43981</v>
       </c>
-      <c r="F85" s="25"/>
+      <c r="F85" s="29"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="18"/>
-      <c r="B86" s="18"/>
+      <c r="A86" s="20"/>
+      <c r="B86" s="20"/>
       <c r="C86" s="6" t="s">
         <v>22</v>
       </c>
@@ -1937,11 +1937,11 @@
       <c r="E86" s="8">
         <v>43985</v>
       </c>
-      <c r="F86" s="25"/>
+      <c r="F86" s="29"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="18"/>
-      <c r="B87" s="19"/>
+      <c r="A87" s="20"/>
+      <c r="B87" s="21"/>
       <c r="C87" s="6" t="s">
         <v>45</v>
       </c>
@@ -1951,20 +1951,20 @@
       <c r="E87" s="8">
         <v>43987</v>
       </c>
-      <c r="F87" s="25"/>
+      <c r="F87" s="29"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="18"/>
+      <c r="A88" s="20"/>
       <c r="B88" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="7"/>
       <c r="E88" s="8"/>
-      <c r="F88" s="25"/>
+      <c r="F88" s="29"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="18"/>
+      <c r="A89" s="20"/>
       <c r="B89" s="10" t="s">
         <v>16</v>
       </c>
@@ -1975,10 +1975,10 @@
       <c r="E89" s="8">
         <v>43990</v>
       </c>
-      <c r="F89" s="25"/>
+      <c r="F89" s="29"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="19"/>
+      <c r="A90" s="21"/>
       <c r="B90" s="10" t="s">
         <v>17</v>
       </c>
@@ -1989,7 +1989,7 @@
       <c r="E90" s="8">
         <v>43990</v>
       </c>
-      <c r="F90" s="26"/>
+      <c r="F90" s="30"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="11" t="s">
@@ -2012,10 +2012,10 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="23">
-        <v>8</v>
-      </c>
-      <c r="B94" s="23" t="s">
+      <c r="A94" s="28">
+        <v>8</v>
+      </c>
+      <c r="B94" s="28" t="s">
         <v>10</v>
       </c>
       <c r="C94" s="13" t="s">
@@ -2027,13 +2027,13 @@
       <c r="E94" s="8">
         <v>43992</v>
       </c>
-      <c r="F94" s="30" t="s">
+      <c r="F94" s="32" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="23"/>
-      <c r="B95" s="23"/>
+      <c r="A95" s="28"/>
+      <c r="B95" s="28"/>
       <c r="C95" s="13" t="s">
         <v>61</v>
       </c>
@@ -2043,11 +2043,11 @@
       <c r="E95" s="8">
         <v>43997</v>
       </c>
-      <c r="F95" s="30"/>
+      <c r="F95" s="32"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="23"/>
-      <c r="B96" s="23"/>
+      <c r="A96" s="28"/>
+      <c r="B96" s="28"/>
       <c r="C96" s="6" t="s">
         <v>50</v>
       </c>
@@ -2057,11 +2057,11 @@
       <c r="E96" s="8">
         <v>44001</v>
       </c>
-      <c r="F96" s="30"/>
+      <c r="F96" s="32"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="23"/>
-      <c r="B97" s="23"/>
+      <c r="A97" s="28"/>
+      <c r="B97" s="28"/>
       <c r="C97" s="6" t="s">
         <v>52</v>
       </c>
@@ -2071,11 +2071,11 @@
       <c r="E97" s="8">
         <v>44006</v>
       </c>
-      <c r="F97" s="30"/>
+      <c r="F97" s="32"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="23"/>
-      <c r="B98" s="23"/>
+      <c r="A98" s="28"/>
+      <c r="B98" s="28"/>
       <c r="C98" s="6" t="s">
         <v>53</v>
       </c>
@@ -2085,11 +2085,11 @@
       <c r="E98" s="8">
         <v>44007</v>
       </c>
-      <c r="F98" s="30"/>
+      <c r="F98" s="32"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="23"/>
-      <c r="B99" s="23"/>
+      <c r="A99" s="28"/>
+      <c r="B99" s="28"/>
       <c r="C99" s="6" t="s">
         <v>22</v>
       </c>
@@ -2099,11 +2099,11 @@
       <c r="E99" s="8">
         <v>44009</v>
       </c>
-      <c r="F99" s="30"/>
+      <c r="F99" s="32"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="23"/>
-      <c r="B100" s="23"/>
+      <c r="A100" s="28"/>
+      <c r="B100" s="28"/>
       <c r="C100" s="6" t="s">
         <v>45</v>
       </c>
@@ -2113,20 +2113,20 @@
       <c r="E100" s="8">
         <v>44010</v>
       </c>
-      <c r="F100" s="30"/>
+      <c r="F100" s="32"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="23"/>
+      <c r="A101" s="28"/>
       <c r="B101" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
-      <c r="F101" s="30"/>
+      <c r="F101" s="32"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="23"/>
+      <c r="A102" s="28"/>
       <c r="B102" s="10" t="s">
         <v>16</v>
       </c>
@@ -2137,10 +2137,10 @@
       <c r="E102" s="8">
         <v>44012</v>
       </c>
-      <c r="F102" s="30"/>
+      <c r="F102" s="32"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="23"/>
+      <c r="A103" s="28"/>
       <c r="B103" s="10" t="s">
         <v>17</v>
       </c>
@@ -2151,7 +2151,7 @@
       <c r="E103" s="8">
         <v>44012</v>
       </c>
-      <c r="F103" s="30"/>
+      <c r="F103" s="32"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="11" t="s">
@@ -2174,10 +2174,10 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="23">
+      <c r="A107" s="28">
         <v>9</v>
       </c>
-      <c r="B107" s="23" t="s">
+      <c r="B107" s="28" t="s">
         <v>10</v>
       </c>
       <c r="C107" s="13" t="s">
@@ -2189,13 +2189,13 @@
       <c r="E107" s="8">
         <v>44013</v>
       </c>
-      <c r="F107" s="30" t="s">
+      <c r="F107" s="32" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="23"/>
-      <c r="B108" s="23"/>
+      <c r="A108" s="28"/>
+      <c r="B108" s="28"/>
       <c r="C108" s="6" t="s">
         <v>57</v>
       </c>
@@ -2205,11 +2205,11 @@
       <c r="E108" s="8">
         <v>44017</v>
       </c>
-      <c r="F108" s="30"/>
+      <c r="F108" s="32"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="23"/>
-      <c r="B109" s="23"/>
+      <c r="A109" s="28"/>
+      <c r="B109" s="28"/>
       <c r="C109" s="6" t="s">
         <v>58</v>
       </c>
@@ -2219,11 +2219,11 @@
       <c r="E109" s="8">
         <v>44020</v>
       </c>
-      <c r="F109" s="30"/>
+      <c r="F109" s="32"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="23"/>
-      <c r="B110" s="23"/>
+      <c r="A110" s="28"/>
+      <c r="B110" s="28"/>
       <c r="C110" s="6" t="s">
         <v>59</v>
       </c>
@@ -2233,11 +2233,11 @@
       <c r="E110" s="8">
         <v>44027</v>
       </c>
-      <c r="F110" s="30"/>
+      <c r="F110" s="32"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="23"/>
-      <c r="B111" s="23"/>
+      <c r="A111" s="28"/>
+      <c r="B111" s="28"/>
       <c r="C111" s="6" t="s">
         <v>22</v>
       </c>
@@ -2247,11 +2247,11 @@
       <c r="E111" s="8">
         <v>44028</v>
       </c>
-      <c r="F111" s="30"/>
+      <c r="F111" s="32"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="23"/>
-      <c r="B112" s="23"/>
+      <c r="A112" s="28"/>
+      <c r="B112" s="28"/>
       <c r="C112" s="6" t="s">
         <v>45</v>
       </c>
@@ -2261,20 +2261,20 @@
       <c r="E112" s="8">
         <v>44032</v>
       </c>
-      <c r="F112" s="30"/>
+      <c r="F112" s="32"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="23"/>
+      <c r="A113" s="28"/>
       <c r="B113" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C113" s="6"/>
       <c r="D113" s="7"/>
       <c r="E113" s="7"/>
-      <c r="F113" s="30"/>
+      <c r="F113" s="32"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="23"/>
+      <c r="A114" s="28"/>
       <c r="B114" s="10" t="s">
         <v>16</v>
       </c>
@@ -2285,10 +2285,10 @@
       <c r="E114" s="8">
         <v>44034</v>
       </c>
-      <c r="F114" s="30"/>
+      <c r="F114" s="32"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="23"/>
+      <c r="A115" s="28"/>
       <c r="B115" s="10" t="s">
         <v>17</v>
       </c>
@@ -2299,7 +2299,7 @@
       <c r="E115" s="8">
         <v>44034</v>
       </c>
-      <c r="F115" s="30"/>
+      <c r="F115" s="32"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="11" t="s">
@@ -2322,10 +2322,10 @@
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="17">
+      <c r="A119" s="19">
         <v>10</v>
       </c>
-      <c r="B119" s="17" t="s">
+      <c r="B119" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C119" s="13" t="s">
@@ -2337,13 +2337,13 @@
       <c r="E119" s="8">
         <v>44067</v>
       </c>
-      <c r="F119" s="24" t="s">
+      <c r="F119" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="18"/>
-      <c r="B120" s="18"/>
+      <c r="A120" s="20"/>
+      <c r="B120" s="20"/>
       <c r="C120" s="6" t="s">
         <v>62</v>
       </c>
@@ -2353,11 +2353,11 @@
       <c r="E120" s="8">
         <v>44074</v>
       </c>
-      <c r="F120" s="25"/>
+      <c r="F120" s="29"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="18"/>
-      <c r="B121" s="18"/>
+      <c r="A121" s="20"/>
+      <c r="B121" s="20"/>
       <c r="C121" s="6" t="s">
         <v>64</v>
       </c>
@@ -2367,11 +2367,11 @@
       <c r="E121" s="8">
         <v>44075</v>
       </c>
-      <c r="F121" s="25"/>
+      <c r="F121" s="29"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="18"/>
-      <c r="B122" s="18"/>
+      <c r="A122" s="20"/>
+      <c r="B122" s="20"/>
       <c r="C122" s="6" t="s">
         <v>65</v>
       </c>
@@ -2381,11 +2381,11 @@
       <c r="E122" s="8">
         <v>44077</v>
       </c>
-      <c r="F122" s="25"/>
+      <c r="F122" s="29"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="18"/>
-      <c r="B123" s="18"/>
+      <c r="A123" s="20"/>
+      <c r="B123" s="20"/>
       <c r="C123" s="6" t="s">
         <v>66</v>
       </c>
@@ -2395,11 +2395,11 @@
       <c r="E123" s="8">
         <v>44077</v>
       </c>
-      <c r="F123" s="25"/>
+      <c r="F123" s="29"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="18"/>
-      <c r="B124" s="18"/>
+      <c r="A124" s="20"/>
+      <c r="B124" s="20"/>
       <c r="C124" s="6" t="s">
         <v>22</v>
       </c>
@@ -2409,11 +2409,11 @@
       <c r="E124" s="8">
         <v>44078</v>
       </c>
-      <c r="F124" s="25"/>
+      <c r="F124" s="29"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="18"/>
-      <c r="B125" s="19"/>
+      <c r="A125" s="20"/>
+      <c r="B125" s="21"/>
       <c r="C125" s="6" t="s">
         <v>45</v>
       </c>
@@ -2423,20 +2423,20 @@
       <c r="E125" s="8">
         <v>44078</v>
       </c>
-      <c r="F125" s="25"/>
+      <c r="F125" s="29"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="18"/>
+      <c r="A126" s="20"/>
       <c r="B126" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C126" s="6"/>
       <c r="D126" s="7"/>
       <c r="E126" s="7"/>
-      <c r="F126" s="25"/>
+      <c r="F126" s="29"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="18"/>
+      <c r="A127" s="20"/>
       <c r="B127" s="10" t="s">
         <v>16</v>
       </c>
@@ -2447,10 +2447,10 @@
       <c r="E127" s="8">
         <v>44083</v>
       </c>
-      <c r="F127" s="25"/>
+      <c r="F127" s="29"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="19"/>
+      <c r="A128" s="21"/>
       <c r="B128" s="10" t="s">
         <v>17</v>
       </c>
@@ -2461,7 +2461,7 @@
       <c r="E128" s="8">
         <v>44083</v>
       </c>
-      <c r="F128" s="26"/>
+      <c r="F128" s="30"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="11" t="s">
@@ -2484,10 +2484,10 @@
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="17">
+      <c r="A132" s="19">
         <v>11</v>
       </c>
-      <c r="B132" s="17" t="s">
+      <c r="B132" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C132" s="13" t="s">
@@ -2499,13 +2499,13 @@
       <c r="E132" s="8">
         <v>44089</v>
       </c>
-      <c r="F132" s="24" t="s">
+      <c r="F132" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="18"/>
-      <c r="B133" s="18"/>
+      <c r="A133" s="20"/>
+      <c r="B133" s="20"/>
       <c r="C133" s="6" t="s">
         <v>62</v>
       </c>
@@ -2515,11 +2515,11 @@
       <c r="E133" s="8">
         <v>44092</v>
       </c>
-      <c r="F133" s="25"/>
+      <c r="F133" s="29"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="18"/>
-      <c r="B134" s="18"/>
+      <c r="A134" s="20"/>
+      <c r="B134" s="20"/>
       <c r="C134" s="6" t="s">
         <v>64</v>
       </c>
@@ -2529,11 +2529,11 @@
       <c r="E134" s="8">
         <v>44097</v>
       </c>
-      <c r="F134" s="25"/>
+      <c r="F134" s="29"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="18"/>
-      <c r="B135" s="18"/>
+      <c r="A135" s="20"/>
+      <c r="B135" s="20"/>
       <c r="C135" s="6" t="s">
         <v>69</v>
       </c>
@@ -2543,11 +2543,11 @@
       <c r="E135" s="8">
         <v>44099</v>
       </c>
-      <c r="F135" s="25"/>
+      <c r="F135" s="29"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="18"/>
-      <c r="B136" s="18"/>
+      <c r="A136" s="20"/>
+      <c r="B136" s="20"/>
       <c r="C136" s="6" t="s">
         <v>22</v>
       </c>
@@ -2557,11 +2557,11 @@
       <c r="E136" s="8">
         <v>44103</v>
       </c>
-      <c r="F136" s="25"/>
+      <c r="F136" s="29"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" s="18"/>
-      <c r="B137" s="19"/>
+      <c r="A137" s="20"/>
+      <c r="B137" s="21"/>
       <c r="C137" s="6" t="s">
         <v>45</v>
       </c>
@@ -2571,20 +2571,20 @@
       <c r="E137" s="8">
         <v>44103</v>
       </c>
-      <c r="F137" s="25"/>
+      <c r="F137" s="29"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" s="18"/>
+      <c r="A138" s="20"/>
       <c r="B138" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C138" s="6"/>
       <c r="D138" s="7"/>
       <c r="E138" s="7"/>
-      <c r="F138" s="25"/>
+      <c r="F138" s="29"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139" s="18"/>
+      <c r="A139" s="20"/>
       <c r="B139" s="10" t="s">
         <v>16</v>
       </c>
@@ -2595,10 +2595,10 @@
       <c r="E139" s="8">
         <v>44104</v>
       </c>
-      <c r="F139" s="25"/>
+      <c r="F139" s="29"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140" s="19"/>
+      <c r="A140" s="21"/>
       <c r="B140" s="10" t="s">
         <v>17</v>
       </c>
@@ -2609,7 +2609,7 @@
       <c r="E140" s="8">
         <v>44104</v>
       </c>
-      <c r="F140" s="26"/>
+      <c r="F140" s="30"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="11" t="s">
@@ -2632,14 +2632,14 @@
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="17">
+      <c r="A144" s="19">
         <v>12</v>
       </c>
-      <c r="B144" s="17" t="s">
+      <c r="B144" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C144" s="13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D144" s="7" t="s">
         <v>8</v>
@@ -2647,15 +2647,15 @@
       <c r="E144" s="8">
         <v>44113</v>
       </c>
-      <c r="F144" s="24" t="s">
+      <c r="F144" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A145" s="18"/>
-      <c r="B145" s="18"/>
+      <c r="A145" s="20"/>
+      <c r="B145" s="20"/>
       <c r="C145" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D145" s="7" t="s">
         <v>60</v>
@@ -2663,13 +2663,13 @@
       <c r="E145" s="8">
         <v>44120</v>
       </c>
-      <c r="F145" s="25"/>
+      <c r="F145" s="29"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" s="18"/>
-      <c r="B146" s="18"/>
+      <c r="A146" s="20"/>
+      <c r="B146" s="20"/>
       <c r="C146" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D146" s="7" t="s">
         <v>60</v>
@@ -2677,20 +2677,20 @@
       <c r="E146" s="8">
         <v>44124</v>
       </c>
-      <c r="F146" s="25"/>
+      <c r="F146" s="29"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" s="18"/>
+      <c r="A147" s="20"/>
       <c r="B147" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C147" s="6"/>
       <c r="D147" s="7"/>
       <c r="E147" s="7"/>
-      <c r="F147" s="25"/>
+      <c r="F147" s="29"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="18"/>
+      <c r="A148" s="20"/>
       <c r="B148" s="10" t="s">
         <v>16</v>
       </c>
@@ -2701,10 +2701,10 @@
       <c r="E148" s="8">
         <v>44128</v>
       </c>
-      <c r="F148" s="25"/>
+      <c r="F148" s="29"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" s="19"/>
+      <c r="A149" s="21"/>
       <c r="B149" s="10" t="s">
         <v>17</v>
       </c>
@@ -2715,7 +2715,7 @@
       <c r="E149" s="8">
         <v>44128</v>
       </c>
-      <c r="F149" s="26"/>
+      <c r="F149" s="30"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="11" t="s">
@@ -2738,10 +2738,10 @@
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" s="17">
+      <c r="A153" s="19">
         <v>13</v>
       </c>
-      <c r="B153" s="17" t="s">
+      <c r="B153" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C153" s="13" t="s">
@@ -2753,13 +2753,13 @@
       <c r="E153" s="8">
         <v>44137</v>
       </c>
-      <c r="F153" s="20" t="s">
+      <c r="F153" s="22" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" s="18"/>
-      <c r="B154" s="18"/>
+      <c r="A154" s="20"/>
+      <c r="B154" s="20"/>
       <c r="C154" s="6" t="s">
         <v>73</v>
       </c>
@@ -2769,11 +2769,11 @@
       <c r="E154" s="8">
         <v>44148</v>
       </c>
-      <c r="F154" s="21"/>
+      <c r="F154" s="23"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="18"/>
-      <c r="B155" s="18"/>
+      <c r="A155" s="20"/>
+      <c r="B155" s="20"/>
       <c r="C155" s="6" t="s">
         <v>72</v>
       </c>
@@ -2781,11 +2781,11 @@
         <v>74</v>
       </c>
       <c r="E155" s="8"/>
-      <c r="F155" s="21"/>
+      <c r="F155" s="23"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156" s="18"/>
-      <c r="B156" s="19"/>
+      <c r="A156" s="20"/>
+      <c r="B156" s="21"/>
       <c r="C156" s="6" t="s">
         <v>75</v>
       </c>
@@ -2793,20 +2793,20 @@
         <v>74</v>
       </c>
       <c r="E156" s="7"/>
-      <c r="F156" s="21"/>
+      <c r="F156" s="23"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157" s="18"/>
+      <c r="A157" s="20"/>
       <c r="B157" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C157" s="6"/>
       <c r="D157" s="7"/>
       <c r="E157" s="8"/>
-      <c r="F157" s="21"/>
+      <c r="F157" s="23"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158" s="18"/>
+      <c r="A158" s="20"/>
       <c r="B158" s="10" t="s">
         <v>16</v>
       </c>
@@ -2815,10 +2815,10 @@
         <v>8</v>
       </c>
       <c r="E158" s="8"/>
-      <c r="F158" s="21"/>
+      <c r="F158" s="23"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159" s="19"/>
+      <c r="A159" s="21"/>
       <c r="B159" s="10" t="s">
         <v>17</v>
       </c>
@@ -2826,11 +2826,37 @@
       <c r="D159" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E159" s="33"/>
-      <c r="F159" s="22"/>
+      <c r="E159" s="18"/>
+      <c r="F159" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="A84:A90"/>
+    <mergeCell ref="A132:A140"/>
+    <mergeCell ref="B132:B137"/>
+    <mergeCell ref="F132:F140"/>
+    <mergeCell ref="A119:A128"/>
+    <mergeCell ref="B119:B125"/>
+    <mergeCell ref="F119:F128"/>
+    <mergeCell ref="A107:A115"/>
+    <mergeCell ref="A94:A103"/>
+    <mergeCell ref="B94:B100"/>
+    <mergeCell ref="F94:F103"/>
+    <mergeCell ref="A144:A149"/>
+    <mergeCell ref="F144:F149"/>
+    <mergeCell ref="B144:B146"/>
+    <mergeCell ref="F59:F67"/>
+    <mergeCell ref="B59:B64"/>
+    <mergeCell ref="B71:B77"/>
+    <mergeCell ref="B107:B112"/>
+    <mergeCell ref="F107:F115"/>
+    <mergeCell ref="F84:F90"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="A9:A15"/>
     <mergeCell ref="A153:A159"/>
     <mergeCell ref="B153:B156"/>
     <mergeCell ref="F153:F159"/>
@@ -2838,11 +2864,6 @@
     <mergeCell ref="B19:B25"/>
     <mergeCell ref="A19:A28"/>
     <mergeCell ref="F19:F28"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="A9:A15"/>
     <mergeCell ref="B46:B52"/>
     <mergeCell ref="A46:A55"/>
     <mergeCell ref="F46:F55"/>
@@ -2852,27 +2873,6 @@
     <mergeCell ref="A71:A80"/>
     <mergeCell ref="F71:F80"/>
     <mergeCell ref="A59:A67"/>
-    <mergeCell ref="F59:F67"/>
-    <mergeCell ref="B59:B64"/>
-    <mergeCell ref="B71:B77"/>
-    <mergeCell ref="B107:B112"/>
-    <mergeCell ref="F107:F115"/>
-    <mergeCell ref="A94:A103"/>
-    <mergeCell ref="B94:B100"/>
-    <mergeCell ref="F94:F103"/>
-    <mergeCell ref="A144:A149"/>
-    <mergeCell ref="F144:F149"/>
-    <mergeCell ref="B144:B146"/>
-    <mergeCell ref="F84:F90"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="A84:A90"/>
-    <mergeCell ref="A132:A140"/>
-    <mergeCell ref="B132:B137"/>
-    <mergeCell ref="F132:F140"/>
-    <mergeCell ref="A119:A128"/>
-    <mergeCell ref="B119:B125"/>
-    <mergeCell ref="F119:F128"/>
-    <mergeCell ref="A107:A115"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
